--- a/ValidCredentials.xlsx
+++ b/ValidCredentials.xlsx
@@ -66,7 +66,7 @@
     <t>http://automationpractice.com/index.php</t>
   </si>
   <si>
-    <t>nesreenessam0@gmail.com</t>
+    <t>nesreenessam8@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
